--- a/GameData/Felbourn/Documents/balance.xlsx
+++ b/GameData/Felbourn/Documents/balance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="electrical" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="battery" sheetId="13" r:id="rId11"/>
     <sheet name="Inconel" sheetId="15" r:id="rId12"/>
     <sheet name="Heat" sheetId="16" r:id="rId13"/>
+    <sheet name="ECLSS" sheetId="17" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="dish_names">comms!#REF!</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="414">
   <si>
     <t>W/m2</t>
   </si>
@@ -1170,6 +1171,108 @@
   </si>
   <si>
     <t>need max</t>
+  </si>
+  <si>
+    <t>drag</t>
+  </si>
+  <si>
+    <t>1/2 drag</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Substrate</t>
+  </si>
+  <si>
+    <t>Mulch</t>
+  </si>
+  <si>
+    <t>Fertilizer</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>Supplies</t>
+  </si>
+  <si>
+    <t>Organics</t>
+  </si>
+  <si>
+    <t>MEU-500 Drill</t>
+  </si>
+  <si>
+    <t>MetallicOre</t>
+  </si>
+  <si>
+    <t>Uraninite</t>
+  </si>
+  <si>
+    <t>MEU-750 Drill</t>
+  </si>
+  <si>
+    <t>Minerals</t>
+  </si>
+  <si>
+    <t>MK-V Regolith Sifter</t>
+  </si>
+  <si>
+    <t>MK-V Agricultural Module</t>
+  </si>
+  <si>
+    <t>Machinery</t>
+  </si>
+  <si>
+    <t>Recyclables</t>
+  </si>
+  <si>
+    <t>SpecializedParts</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>kg/day</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Loss</t>
+  </si>
+  <si>
+    <t>MK-V Smelt-O-Matic</t>
+  </si>
+  <si>
+    <t>Metals</t>
+  </si>
+  <si>
+    <t>Chemicals</t>
+  </si>
+  <si>
+    <t>Polymers</t>
+  </si>
+  <si>
+    <t>MK-V Habitation Module</t>
+  </si>
+  <si>
+    <t>MK-V Inflatable Workshop</t>
+  </si>
+  <si>
+    <t>RocketParts</t>
+  </si>
+  <si>
+    <t>MK-V Scout-200</t>
+  </si>
+  <si>
+    <t>Nom-O-Matic 5000</t>
   </si>
 </sst>
 </file>
@@ -1185,7 +1288,7 @@
     <numFmt numFmtId="168" formatCode="0.000000"/>
     <numFmt numFmtId="169" formatCode="_(* #,##0.000000_);_(* \(#,##0.000000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1257,6 +1360,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="11">
@@ -1381,7 +1490,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1572,13 +1681,590 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="66">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1586,6 +2272,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>86793</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38806</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7649643" cy="5058481"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3271,10 +4000,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3282,7 +4011,7 @@
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>377</v>
       </c>
@@ -3295,8 +4024,14 @@
       <c r="D1" s="1" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>775</v>
       </c>
@@ -3310,9 +4045,2416 @@
         <f>A2/SQRT(C2)/B2</f>
         <v>1886.5999202955725</v>
       </c>
+      <c r="F2" s="1">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="G2" s="24">
+        <f>F2^2</f>
+        <v>0.54464400000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F3" s="1">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="G3" s="24">
+        <f>F3^2</f>
+        <v>0.18576099999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F4" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G4" s="24">
+        <f>F4^2</f>
+        <v>0.30250000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F5" s="1">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="G5" s="24">
+        <f>F5^2</f>
+        <v>0.53144099999999994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F6" s="1">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="G6" s="24">
+        <f>F6^2</f>
+        <v>0.61622500000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F7" s="1">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="G7" s="24">
+        <f>F7^2</f>
+        <v>0.63520900000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <f>F8^2</f>
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <f>6.5</f>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H9" s="1">
+        <f>H8/2</f>
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H10" s="24">
+        <f>PI()*H9^2</f>
+        <v>33.183072403542191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="1">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="1">
+        <f>F13/360</f>
+        <v>20.833333333333332</v>
+      </c>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="1">
+        <f>6*3600</f>
+        <v>21600</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A13:AO48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" style="65" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="7.5703125" style="64" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.85546875" style="64" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" style="64" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" style="64" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" style="64" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" style="64" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="64"/>
+    <col min="13" max="13" width="12" style="64" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.85546875" style="64" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9" style="64" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.42578125" style="64" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" style="64"/>
+    <col min="20" max="20" width="7.5703125" style="64" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="7" style="64" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.85546875" style="64" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5" style="64" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="6.7109375" style="64" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7" style="64" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.42578125" style="64" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7" style="64" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6.7109375" style="64" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.140625" style="64" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.140625" style="64"/>
+    <col min="34" max="34" width="12" style="64" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.85546875" style="64" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="7.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="6.7109375" style="64" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9" style="64" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="5.42578125" style="64" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="5.85546875" style="64" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="8.85546875" style="64" bestFit="1" customWidth="1"/>
+    <col min="42" max="16384" width="9.140625" style="64"/>
+  </cols>
+  <sheetData>
+    <row r="13" spans="25:25" x14ac:dyDescent="0.2">
+      <c r="Y13" s="68"/>
+    </row>
+    <row r="19" spans="20:39" x14ac:dyDescent="0.2">
+      <c r="Y19" s="68"/>
+    </row>
+    <row r="25" spans="20:39" x14ac:dyDescent="0.2">
+      <c r="Y25" s="68"/>
+    </row>
+    <row r="32" spans="20:39" x14ac:dyDescent="0.2">
+      <c r="T32" s="64" t="s">
+        <v>402</v>
+      </c>
+      <c r="W32" s="64">
+        <v>1</v>
+      </c>
+      <c r="X32" s="64">
+        <v>1.6</v>
+      </c>
+      <c r="Y32" s="64">
+        <v>1</v>
+      </c>
+      <c r="Z32" s="64">
+        <v>1</v>
+      </c>
+      <c r="AA32" s="64">
+        <v>1</v>
+      </c>
+      <c r="AB32" s="64">
+        <v>1</v>
+      </c>
+      <c r="AC32" s="64">
+        <v>5.5</v>
+      </c>
+      <c r="AD32" s="64">
+        <v>7.5</v>
+      </c>
+      <c r="AE32" s="64">
+        <v>2.7</v>
+      </c>
+      <c r="AF32" s="64">
+        <v>3.78</v>
+      </c>
+      <c r="AG32" s="64">
+        <v>3.78</v>
+      </c>
+      <c r="AH32" s="64">
+        <v>3.78</v>
+      </c>
+      <c r="AI32" s="64">
+        <v>2.5</v>
+      </c>
+      <c r="AJ32" s="64">
+        <v>1.04</v>
+      </c>
+      <c r="AK32" s="64">
+        <v>7.8</v>
+      </c>
+      <c r="AL32" s="64">
+        <v>2.5</v>
+      </c>
+      <c r="AM32" s="64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A33" s="65" t="s">
+        <v>382</v>
+      </c>
+      <c r="B33" s="64" t="s">
+        <v>383</v>
+      </c>
+      <c r="C33" s="64" t="s">
+        <v>384</v>
+      </c>
+      <c r="D33" s="64" t="s">
+        <v>385</v>
+      </c>
+      <c r="E33" s="64" t="s">
+        <v>386</v>
+      </c>
+      <c r="F33" s="64" t="s">
+        <v>388</v>
+      </c>
+      <c r="G33" s="64" t="s">
+        <v>389</v>
+      </c>
+      <c r="H33" s="64" t="s">
+        <v>391</v>
+      </c>
+      <c r="I33" s="64" t="s">
+        <v>392</v>
+      </c>
+      <c r="J33" s="64" t="s">
+        <v>394</v>
+      </c>
+      <c r="K33" s="64" t="s">
+        <v>397</v>
+      </c>
+      <c r="L33" s="64" t="s">
+        <v>398</v>
+      </c>
+      <c r="M33" s="64" t="s">
+        <v>399</v>
+      </c>
+      <c r="N33" s="64" t="s">
+        <v>407</v>
+      </c>
+      <c r="O33" s="64" t="s">
+        <v>408</v>
+      </c>
+      <c r="P33" s="64" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q33" s="64" t="s">
+        <v>411</v>
+      </c>
+      <c r="R33" s="64" t="s">
+        <v>387</v>
+      </c>
+      <c r="T33" s="64" t="s">
+        <v>400</v>
+      </c>
+      <c r="U33" s="64" t="s">
+        <v>401</v>
+      </c>
+      <c r="V33" s="64" t="s">
+        <v>404</v>
+      </c>
+      <c r="W33" s="64" t="s">
+        <v>383</v>
+      </c>
+      <c r="X33" s="64" t="s">
+        <v>384</v>
+      </c>
+      <c r="Y33" s="64" t="s">
+        <v>385</v>
+      </c>
+      <c r="Z33" s="64" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA33" s="64" t="s">
+        <v>388</v>
+      </c>
+      <c r="AB33" s="64" t="s">
+        <v>389</v>
+      </c>
+      <c r="AC33" s="64" t="s">
+        <v>391</v>
+      </c>
+      <c r="AD33" s="64" t="s">
+        <v>392</v>
+      </c>
+      <c r="AE33" s="64" t="s">
+        <v>394</v>
+      </c>
+      <c r="AF33" s="64" t="s">
+        <v>397</v>
+      </c>
+      <c r="AG33" s="64" t="s">
+        <v>398</v>
+      </c>
+      <c r="AH33" s="64" t="s">
+        <v>399</v>
+      </c>
+      <c r="AI33" s="64" t="s">
+        <v>407</v>
+      </c>
+      <c r="AJ33" s="64" t="s">
+        <v>408</v>
+      </c>
+      <c r="AK33" s="64" t="s">
+        <v>406</v>
+      </c>
+      <c r="AL33" s="64" t="s">
+        <v>411</v>
+      </c>
+      <c r="AM33" s="64" t="s">
+        <v>387</v>
+      </c>
+      <c r="AN33" s="64" t="s">
+        <v>403</v>
+      </c>
+      <c r="AO33" s="64" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="34" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A34" s="65" t="s">
+        <v>395</v>
+      </c>
+      <c r="B34" s="64">
+        <v>1E-3</v>
+      </c>
+      <c r="C34" s="64">
+        <v>1E-3</v>
+      </c>
+      <c r="D34" s="64">
+        <v>0</v>
+      </c>
+      <c r="E34" s="64">
+        <v>0</v>
+      </c>
+      <c r="F34" s="64">
+        <v>0</v>
+      </c>
+      <c r="G34" s="64">
+        <v>0</v>
+      </c>
+      <c r="H34" s="64">
+        <v>1E-3</v>
+      </c>
+      <c r="I34" s="64">
+        <v>0</v>
+      </c>
+      <c r="J34" s="64">
+        <v>1E-3</v>
+      </c>
+      <c r="K34" s="64">
+        <v>0</v>
+      </c>
+      <c r="L34" s="64">
+        <v>0</v>
+      </c>
+      <c r="M34" s="64">
+        <v>0</v>
+      </c>
+      <c r="N34" s="64">
+        <v>0</v>
+      </c>
+      <c r="O34" s="64">
+        <v>0</v>
+      </c>
+      <c r="P34" s="64">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="64">
+        <v>0</v>
+      </c>
+      <c r="R34" s="64">
+        <v>-2</v>
+      </c>
+      <c r="T34" s="66">
+        <f t="shared" ref="T34" si="0">SUMIF(V34:AM34,"&lt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="U34" s="67">
+        <f t="shared" ref="U34" si="1">SUMIF(V34:AM34,"&gt;0")</f>
+        <v>933.11999999999989</v>
+      </c>
+      <c r="V34" s="67">
+        <v>0</v>
+      </c>
+      <c r="W34" s="64">
+        <f t="shared" ref="W34:W36" si="2">B34*W$32*3600*24</f>
+        <v>86.4</v>
+      </c>
+      <c r="X34" s="64">
+        <f t="shared" ref="X34:X36" si="3">C34*X$32*3600*24</f>
+        <v>138.24</v>
+      </c>
+      <c r="Y34" s="64">
+        <f t="shared" ref="Y34:Y36" si="4">D34*Y$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="Z34" s="64">
+        <f t="shared" ref="Z34:Z36" si="5">E34*Z$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AA34" s="64">
+        <f t="shared" ref="AA34:AA36" si="6">F34*AA$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AB34" s="64">
+        <f t="shared" ref="AB34:AB36" si="7">G34*AB$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AC34" s="64">
+        <f>H34*AC$32*3600*24</f>
+        <v>475.19999999999993</v>
+      </c>
+      <c r="AD34" s="64">
+        <f t="shared" ref="AD34:AD36" si="8">I34*AD$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AE34" s="64">
+        <f t="shared" ref="AE34:AE36" si="9">J34*AE$32*3600*24</f>
+        <v>233.28000000000003</v>
+      </c>
+      <c r="AF34" s="64">
+        <f>K34*AF$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AG34" s="64">
+        <f t="shared" ref="AG34:AG36" si="10">L34*AG$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AH34" s="64">
+        <f>M34*AH$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AI34" s="64">
+        <f>N34*AI$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AJ34" s="64">
+        <f>O34*AJ$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AK34" s="64">
+        <f>P34*AK$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AL34" s="64">
+        <f>Q34*AL$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AM34" s="64">
+        <f t="shared" ref="AM34:AM36" si="11">R34*AM$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AN34" s="64" t="b">
+        <f t="shared" ref="AN34:AN36" si="12">T34=U34</f>
+        <v>0</v>
+      </c>
+      <c r="AO34" s="66">
+        <f t="shared" ref="AO34:AO36" si="13">U34+T34</f>
+        <v>933.11999999999989</v>
+      </c>
+    </row>
+    <row r="35" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A35" s="65" t="s">
+        <v>396</v>
+      </c>
+      <c r="B35" s="64">
+        <v>0</v>
+      </c>
+      <c r="C35" s="64">
+        <v>0</v>
+      </c>
+      <c r="D35" s="64">
+        <v>-1E-4</v>
+      </c>
+      <c r="E35" s="64">
+        <v>0</v>
+      </c>
+      <c r="F35" s="64">
+        <v>0</v>
+      </c>
+      <c r="G35" s="64">
+        <v>7.4999999999999993E-5</v>
+      </c>
+      <c r="H35" s="64">
+        <v>0</v>
+      </c>
+      <c r="I35" s="64">
+        <v>0</v>
+      </c>
+      <c r="J35" s="64">
+        <v>0</v>
+      </c>
+      <c r="K35" s="64">
+        <v>-1.0000000000000001E-5</v>
+      </c>
+      <c r="L35" s="64">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="M35" s="64">
+        <v>0</v>
+      </c>
+      <c r="N35" s="64">
+        <v>0</v>
+      </c>
+      <c r="O35" s="64">
+        <v>0</v>
+      </c>
+      <c r="P35" s="64">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="64">
+        <v>0</v>
+      </c>
+      <c r="R35" s="64">
+        <v>-3</v>
+      </c>
+      <c r="T35" s="66">
+        <f>SUMIF(V35:AM35,"&lt;0")</f>
+        <v>-11.905920000000002</v>
+      </c>
+      <c r="U35" s="66">
+        <f>SUMIF(V35:AM35,"&gt;0")</f>
+        <v>11.905919999999998</v>
+      </c>
+      <c r="V35" s="66">
+        <v>2.16</v>
+      </c>
+      <c r="W35" s="64">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X35" s="64">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y35" s="64">
+        <f t="shared" si="4"/>
+        <v>-8.64</v>
+      </c>
+      <c r="Z35" s="64">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AA35" s="64">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB35" s="64">
+        <f t="shared" si="7"/>
+        <v>6.4799999999999986</v>
+      </c>
+      <c r="AC35" s="64">
+        <f>H35*AC$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AD35" s="64">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AE35" s="64">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF35" s="64">
+        <f>K35*AF$32*3600*24</f>
+        <v>-3.2659200000000004</v>
+      </c>
+      <c r="AG35" s="64">
+        <f t="shared" si="10"/>
+        <v>3.2659200000000004</v>
+      </c>
+      <c r="AH35" s="64">
+        <f>M35*AH$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AI35" s="64">
+        <f>N35*AI$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AJ35" s="64">
+        <f>O35*AJ$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AK35" s="64">
+        <f>P35*AK$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AL35" s="64">
+        <f>Q35*AL$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AM35" s="64">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AN35" s="64" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AO35" s="66">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A36" s="65" t="s">
+        <v>396</v>
+      </c>
+      <c r="B36" s="64">
+        <v>0</v>
+      </c>
+      <c r="C36" s="64">
+        <v>0</v>
+      </c>
+      <c r="D36" s="64">
+        <v>-1E-4</v>
+      </c>
+      <c r="E36" s="64">
+        <v>-2.0000000000000002E-5</v>
+      </c>
+      <c r="F36" s="64">
+        <v>0</v>
+      </c>
+      <c r="G36" s="64">
+        <v>1.2E-4</v>
+      </c>
+      <c r="H36" s="64">
+        <v>0</v>
+      </c>
+      <c r="I36" s="64">
+        <v>0</v>
+      </c>
+      <c r="J36" s="64">
+        <v>0</v>
+      </c>
+      <c r="K36" s="64">
+        <v>-1.0000000000000001E-5</v>
+      </c>
+      <c r="L36" s="64">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="M36" s="64">
+        <v>0</v>
+      </c>
+      <c r="N36" s="64">
+        <v>0</v>
+      </c>
+      <c r="O36" s="64">
+        <v>0</v>
+      </c>
+      <c r="P36" s="64">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="64">
+        <v>0</v>
+      </c>
+      <c r="R36" s="64">
+        <v>-3</v>
+      </c>
+      <c r="T36" s="66">
+        <f t="shared" ref="T36" si="14">SUMIF(V36:AM36,"&lt;0")</f>
+        <v>-13.63392</v>
+      </c>
+      <c r="U36" s="66">
+        <f t="shared" ref="U36" si="15">SUMIF(V36:AM36,"&gt;0")</f>
+        <v>13.63392</v>
+      </c>
+      <c r="V36" s="66">
+        <v>0</v>
+      </c>
+      <c r="W36" s="64">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X36" s="64">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y36" s="64">
+        <f t="shared" si="4"/>
+        <v>-8.64</v>
+      </c>
+      <c r="Z36" s="64">
+        <f t="shared" si="5"/>
+        <v>-1.7280000000000002</v>
+      </c>
+      <c r="AA36" s="64">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB36" s="64">
+        <f t="shared" si="7"/>
+        <v>10.368</v>
+      </c>
+      <c r="AC36" s="64">
+        <f>H36*AC$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AD36" s="64">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AE36" s="64">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF36" s="64">
+        <f>K36*AF$32*3600*24</f>
+        <v>-3.2659200000000004</v>
+      </c>
+      <c r="AG36" s="64">
+        <f t="shared" si="10"/>
+        <v>3.2659200000000004</v>
+      </c>
+      <c r="AH36" s="64">
+        <f>M36*AH$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AI36" s="64">
+        <f>N36*AI$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AJ36" s="64">
+        <f>O36*AJ$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AK36" s="64">
+        <f>P36*AK$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AL36" s="64">
+        <f>Q36*AL$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AM36" s="64">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AN36" s="64" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AO36" s="66">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A37" s="65" t="s">
+        <v>405</v>
+      </c>
+      <c r="B37" s="64">
+        <v>0</v>
+      </c>
+      <c r="C37" s="64">
+        <v>0</v>
+      </c>
+      <c r="D37" s="64">
+        <v>0</v>
+      </c>
+      <c r="E37" s="64">
+        <v>0</v>
+      </c>
+      <c r="F37" s="64">
+        <v>0</v>
+      </c>
+      <c r="G37" s="64">
+        <v>0</v>
+      </c>
+      <c r="H37" s="64">
+        <v>-2.5</v>
+      </c>
+      <c r="I37" s="64">
+        <v>0</v>
+      </c>
+      <c r="J37" s="64">
+        <v>0</v>
+      </c>
+      <c r="K37" s="64">
+        <v>-1.0000000000000001E-5</v>
+      </c>
+      <c r="L37" s="64">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="M37" s="64">
+        <v>0</v>
+      </c>
+      <c r="N37" s="64">
+        <v>0</v>
+      </c>
+      <c r="O37" s="64">
+        <v>0</v>
+      </c>
+      <c r="P37" s="64">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="Q37" s="64">
+        <v>0</v>
+      </c>
+      <c r="R37" s="64">
+        <v>-3</v>
+      </c>
+      <c r="T37" s="67">
+        <f t="shared" ref="T37" si="16">SUMIF(V37:AM37,"&lt;0")</f>
+        <v>-1188003.2659199999</v>
+      </c>
+      <c r="U37" s="67">
+        <f t="shared" ref="U37" si="17">SUMIF(V37:AM37,"&gt;0")</f>
+        <v>1188003.2659199999</v>
+      </c>
+      <c r="V37" s="67">
+        <v>1171152</v>
+      </c>
+      <c r="W37" s="64">
+        <f t="shared" ref="W37:W39" si="18">B37*W$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="X37" s="64">
+        <f t="shared" ref="X37:X39" si="19">C37*X$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="Y37" s="64">
+        <f t="shared" ref="Y37:Y38" si="20">D37*Y$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="Z37" s="64">
+        <f t="shared" ref="Z37:Z38" si="21">E37*Z$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AA37" s="64">
+        <f t="shared" ref="AA37:AA38" si="22">F37*AA$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AB37" s="64">
+        <f t="shared" ref="AB37:AB38" si="23">G37*AB$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AC37" s="64">
+        <f t="shared" ref="AC37:AC38" si="24">H37*AC$32*3600*24</f>
+        <v>-1188000</v>
+      </c>
+      <c r="AD37" s="64">
+        <f t="shared" ref="AD37:AD38" si="25">I37*AD$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AE37" s="64">
+        <f t="shared" ref="AE37:AE38" si="26">J37*AE$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AF37" s="64">
+        <f t="shared" ref="AF37:AF38" si="27">K37*AF$32*3600*24</f>
+        <v>-3.2659200000000004</v>
+      </c>
+      <c r="AG37" s="64">
+        <f t="shared" ref="AG37:AG38" si="28">L37*AG$32*3600*24</f>
+        <v>3.2659200000000004</v>
+      </c>
+      <c r="AH37" s="64">
+        <f>M37*AH$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AI37" s="64">
+        <f>N37*AI$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AJ37" s="64">
+        <f>O37*AJ$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AK37" s="64">
+        <f>P37*AK$32*3600*24</f>
+        <v>16848</v>
+      </c>
+      <c r="AL37" s="64">
+        <f>Q37*AL$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AM37" s="64">
+        <f t="shared" ref="AM37" si="29">R37*AM$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AN37" s="64" t="b">
+        <f t="shared" ref="AN37" si="30">T37=U37</f>
+        <v>0</v>
+      </c>
+      <c r="AO37" s="66">
+        <f t="shared" ref="AO37" si="31">U37+T37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A38" s="65" t="s">
+        <v>405</v>
+      </c>
+      <c r="B38" s="64">
+        <v>0</v>
+      </c>
+      <c r="C38" s="64">
+        <v>0</v>
+      </c>
+      <c r="D38" s="64">
+        <v>0</v>
+      </c>
+      <c r="E38" s="64">
+        <v>0</v>
+      </c>
+      <c r="F38" s="64">
+        <v>0</v>
+      </c>
+      <c r="G38" s="64">
+        <v>0</v>
+      </c>
+      <c r="H38" s="64">
+        <v>0</v>
+      </c>
+      <c r="I38" s="64">
+        <v>0</v>
+      </c>
+      <c r="J38" s="64">
+        <v>-2.5</v>
+      </c>
+      <c r="K38" s="64">
+        <v>-1.0000000000000001E-5</v>
+      </c>
+      <c r="L38" s="64">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="M38" s="64">
+        <v>0</v>
+      </c>
+      <c r="N38" s="64">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="O38" s="64">
+        <v>0</v>
+      </c>
+      <c r="P38" s="64">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="64">
+        <v>0</v>
+      </c>
+      <c r="R38" s="64">
+        <v>-3</v>
+      </c>
+      <c r="T38" s="67">
+        <f t="shared" ref="T38" si="32">SUMIF(V38:AM38,"&lt;0")</f>
+        <v>-583203.26592000003</v>
+      </c>
+      <c r="U38" s="67">
+        <f t="shared" ref="U38" si="33">SUMIF(V38:AM38,"&gt;0")</f>
+        <v>583206.53184000007</v>
+      </c>
+      <c r="V38" s="67">
+        <v>577803.26592000003</v>
+      </c>
+      <c r="W38" s="64">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="X38" s="64">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Y38" s="64">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Z38" s="64">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AA38" s="64">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AB38" s="64">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AC38" s="64">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AD38" s="64">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AE38" s="64">
+        <f t="shared" si="26"/>
+        <v>-583200</v>
+      </c>
+      <c r="AF38" s="64">
+        <f t="shared" si="27"/>
+        <v>-3.2659200000000004</v>
+      </c>
+      <c r="AG38" s="64">
+        <f t="shared" si="28"/>
+        <v>3.2659200000000004</v>
+      </c>
+      <c r="AH38" s="64">
+        <f>M38*AH$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AI38" s="64">
+        <f>N38*AI$32*3600*24</f>
+        <v>5400</v>
+      </c>
+      <c r="AJ38" s="64">
+        <f>O38*AJ$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AK38" s="64">
+        <f>P38*AK$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AL38" s="64">
+        <f>Q38*AL$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AM38" s="64">
+        <f t="shared" ref="AM38" si="34">R38*AM$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AN38" s="64" t="b">
+        <f t="shared" ref="AN38" si="35">T38=U38</f>
+        <v>0</v>
+      </c>
+      <c r="AO38" s="66">
+        <f t="shared" ref="AO38" si="36">U38+T38</f>
+        <v>3.2659200000343844</v>
+      </c>
+    </row>
+    <row r="39" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A39" s="65" t="s">
+        <v>405</v>
+      </c>
+      <c r="B39" s="64">
+        <v>0</v>
+      </c>
+      <c r="C39" s="64">
+        <v>-2.5</v>
+      </c>
+      <c r="D39" s="64">
+        <v>0</v>
+      </c>
+      <c r="E39" s="64">
+        <v>0</v>
+      </c>
+      <c r="F39" s="64">
+        <v>0</v>
+      </c>
+      <c r="G39" s="64">
+        <v>0</v>
+      </c>
+      <c r="H39" s="64">
+        <v>0</v>
+      </c>
+      <c r="I39" s="64">
+        <v>0</v>
+      </c>
+      <c r="J39" s="64">
+        <v>0</v>
+      </c>
+      <c r="K39" s="64">
+        <v>-1.0000000000000001E-5</v>
+      </c>
+      <c r="L39" s="64">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="M39" s="64">
+        <v>0</v>
+      </c>
+      <c r="N39" s="64">
+        <v>0</v>
+      </c>
+      <c r="O39" s="64">
+        <v>0</v>
+      </c>
+      <c r="P39" s="64">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="64">
+        <v>0</v>
+      </c>
+      <c r="R39" s="64">
+        <v>-3</v>
+      </c>
+      <c r="T39" s="67">
+        <f t="shared" ref="T39" si="37">SUMIF(V39:AM39,"&lt;0")</f>
+        <v>-345603.26591999998</v>
+      </c>
+      <c r="U39" s="67">
+        <f t="shared" ref="U39" si="38">SUMIF(V39:AM39,"&gt;0")</f>
+        <v>345603.26591999998</v>
+      </c>
+      <c r="V39" s="67">
+        <v>345600</v>
+      </c>
+      <c r="W39" s="64">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="X39" s="64">
+        <f t="shared" si="19"/>
+        <v>-345600</v>
+      </c>
+      <c r="Y39" s="64">
+        <f t="shared" ref="Y39" si="39">D39*Y$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="Z39" s="64">
+        <f t="shared" ref="Z39" si="40">E39*Z$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AA39" s="64">
+        <f t="shared" ref="AA39" si="41">F39*AA$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AB39" s="64">
+        <f t="shared" ref="AB39" si="42">G39*AB$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AC39" s="64">
+        <f t="shared" ref="AC39" si="43">H39*AC$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AD39" s="64">
+        <f t="shared" ref="AD39" si="44">I39*AD$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AE39" s="64">
+        <f t="shared" ref="AE39" si="45">J39*AE$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AF39" s="64">
+        <f t="shared" ref="AF39" si="46">K39*AF$32*3600*24</f>
+        <v>-3.2659200000000004</v>
+      </c>
+      <c r="AG39" s="64">
+        <f t="shared" ref="AG39" si="47">L39*AG$32*3600*24</f>
+        <v>3.2659200000000004</v>
+      </c>
+      <c r="AH39" s="64">
+        <f>M39*AH$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AI39" s="64">
+        <f>N39*AI$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AJ39" s="64">
+        <f>O39*AJ$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AK39" s="64">
+        <f>P39*AK$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AL39" s="64">
+        <f>Q39*AL$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AM39" s="64">
+        <f t="shared" ref="AM39" si="48">R39*AM$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AN39" s="64" t="b">
+        <f t="shared" ref="AN39" si="49">T39=U39</f>
+        <v>0</v>
+      </c>
+      <c r="AO39" s="66">
+        <f t="shared" ref="AO39" si="50">U39+T39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A40" s="65" t="s">
+        <v>409</v>
+      </c>
+      <c r="B40" s="64">
+        <v>0</v>
+      </c>
+      <c r="C40" s="64">
+        <v>0</v>
+      </c>
+      <c r="D40" s="64">
+        <v>0</v>
+      </c>
+      <c r="E40" s="64">
+        <v>0</v>
+      </c>
+      <c r="F40" s="64">
+        <v>1E-4</v>
+      </c>
+      <c r="G40" s="64">
+        <v>-1E-4</v>
+      </c>
+      <c r="H40" s="64">
+        <v>0</v>
+      </c>
+      <c r="I40" s="64">
+        <v>0</v>
+      </c>
+      <c r="J40" s="64">
+        <v>0</v>
+      </c>
+      <c r="K40" s="64">
+        <v>-1.0000000000000001E-5</v>
+      </c>
+      <c r="L40" s="64">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="M40" s="64">
+        <v>0</v>
+      </c>
+      <c r="N40" s="64">
+        <v>0</v>
+      </c>
+      <c r="O40" s="64">
+        <v>0</v>
+      </c>
+      <c r="P40" s="64">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="64">
+        <v>0</v>
+      </c>
+      <c r="R40" s="64">
+        <v>-3</v>
+      </c>
+      <c r="T40" s="67">
+        <f t="shared" ref="T40" si="51">SUMIF(V40:AM40,"&lt;0")</f>
+        <v>-11.905920000000002</v>
+      </c>
+      <c r="U40" s="67">
+        <f t="shared" ref="U40" si="52">SUMIF(V40:AM40,"&gt;0")</f>
+        <v>11.905920000000002</v>
+      </c>
+      <c r="V40" s="67">
+        <v>0</v>
+      </c>
+      <c r="W40" s="64">
+        <f t="shared" ref="W40" si="53">B40*W$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="X40" s="64">
+        <f t="shared" ref="X40" si="54">C40*X$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="Y40" s="64">
+        <f t="shared" ref="Y40" si="55">D40*Y$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="Z40" s="64">
+        <f t="shared" ref="Z40" si="56">E40*Z$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AA40" s="64">
+        <f t="shared" ref="AA40" si="57">F40*AA$32*3600*24</f>
+        <v>8.64</v>
+      </c>
+      <c r="AB40" s="64">
+        <f t="shared" ref="AB40" si="58">G40*AB$32*3600*24</f>
+        <v>-8.64</v>
+      </c>
+      <c r="AC40" s="64">
+        <f t="shared" ref="AC40" si="59">H40*AC$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AD40" s="64">
+        <f t="shared" ref="AD40" si="60">I40*AD$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AE40" s="64">
+        <f t="shared" ref="AE40" si="61">J40*AE$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AF40" s="64">
+        <f t="shared" ref="AF40" si="62">K40*AF$32*3600*24</f>
+        <v>-3.2659200000000004</v>
+      </c>
+      <c r="AG40" s="64">
+        <f t="shared" ref="AG40" si="63">L40*AG$32*3600*24</f>
+        <v>3.2659200000000004</v>
+      </c>
+      <c r="AH40" s="64">
+        <f>M40*AH$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AI40" s="64">
+        <f>N40*AI$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AJ40" s="64">
+        <f>O40*AJ$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AK40" s="64">
+        <f>P40*AK$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AL40" s="64">
+        <f>Q40*AL$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AM40" s="64">
+        <f t="shared" ref="AM40" si="64">R40*AM$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AN40" s="64" t="b">
+        <f t="shared" ref="AN40" si="65">T40=U40</f>
+        <v>0</v>
+      </c>
+      <c r="AO40" s="66">
+        <f t="shared" ref="AO40" si="66">U40+T40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A41" s="65" t="s">
+        <v>410</v>
+      </c>
+      <c r="B41" s="64">
+        <v>0</v>
+      </c>
+      <c r="C41" s="64">
+        <v>0</v>
+      </c>
+      <c r="D41" s="64">
+        <v>0</v>
+      </c>
+      <c r="E41" s="64">
+        <v>0</v>
+      </c>
+      <c r="F41" s="64">
+        <v>0</v>
+      </c>
+      <c r="G41" s="64">
+        <v>0</v>
+      </c>
+      <c r="H41" s="64">
+        <v>0</v>
+      </c>
+      <c r="I41" s="64">
+        <v>0</v>
+      </c>
+      <c r="J41" s="64">
+        <v>0</v>
+      </c>
+      <c r="K41" s="64">
+        <v>-1.0000000000000001E-5</v>
+      </c>
+      <c r="L41" s="64">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="M41" s="64">
+        <v>-0.25</v>
+      </c>
+      <c r="N41" s="64">
+        <v>-0.25</v>
+      </c>
+      <c r="O41" s="64">
+        <v>-0.25</v>
+      </c>
+      <c r="P41" s="64">
+        <v>-0.25</v>
+      </c>
+      <c r="Q41" s="64">
+        <v>1</v>
+      </c>
+      <c r="R41" s="64">
+        <v>-3</v>
+      </c>
+      <c r="T41" s="67">
+        <f t="shared" ref="T41:T42" si="67">SUMIF(V41:AM41,"&lt;0")</f>
+        <v>-326595.26592000003</v>
+      </c>
+      <c r="U41" s="67">
+        <f t="shared" ref="U41:U42" si="68">SUMIF(V41:AM41,"&gt;0")</f>
+        <v>326595.26592000003</v>
+      </c>
+      <c r="V41" s="67">
+        <v>110592</v>
+      </c>
+      <c r="W41" s="64">
+        <f t="shared" ref="W41:W42" si="69">B41*W$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="X41" s="64">
+        <f t="shared" ref="X41:X42" si="70">C41*X$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="Y41" s="64">
+        <f t="shared" ref="Y41:Y42" si="71">D41*Y$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="Z41" s="64">
+        <f t="shared" ref="Z41:Z42" si="72">E41*Z$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AA41" s="64">
+        <f t="shared" ref="AA41:AA42" si="73">F41*AA$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AB41" s="64">
+        <f t="shared" ref="AB41:AB42" si="74">G41*AB$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AC41" s="64">
+        <f t="shared" ref="AC41:AC42" si="75">H41*AC$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AD41" s="64">
+        <f t="shared" ref="AD41:AD42" si="76">I41*AD$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AE41" s="64">
+        <f t="shared" ref="AE41:AE42" si="77">J41*AE$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AF41" s="64">
+        <f t="shared" ref="AF41:AF42" si="78">K41*AF$32*3600*24</f>
+        <v>-3.2659200000000004</v>
+      </c>
+      <c r="AG41" s="64">
+        <f t="shared" ref="AG41:AG42" si="79">L41*AG$32*3600*24</f>
+        <v>3.2659200000000004</v>
+      </c>
+      <c r="AH41" s="64">
+        <f>M41*AH$32*3600*24</f>
+        <v>-81648</v>
+      </c>
+      <c r="AI41" s="64">
+        <f>N41*AI$32*3600*24</f>
+        <v>-54000</v>
+      </c>
+      <c r="AJ41" s="64">
+        <f>O41*AJ$32*3600*24</f>
+        <v>-22464</v>
+      </c>
+      <c r="AK41" s="64">
+        <f>P41*AK$32*3600*24</f>
+        <v>-168480</v>
+      </c>
+      <c r="AL41" s="64">
+        <f>Q41*AL$32*3600*24</f>
+        <v>216000</v>
+      </c>
+      <c r="AM41" s="64">
+        <f t="shared" ref="AM41:AM42" si="80">R41*AM$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AN41" s="64" t="b">
+        <f t="shared" ref="AN41:AN42" si="81">T41=U41</f>
+        <v>0</v>
+      </c>
+      <c r="AO41" s="66">
+        <f t="shared" ref="AO41:AO42" si="82">U41+T41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A42" s="65" t="s">
+        <v>410</v>
+      </c>
+      <c r="B42" s="64">
+        <v>0</v>
+      </c>
+      <c r="C42" s="64">
+        <v>0</v>
+      </c>
+      <c r="D42" s="64">
+        <v>0</v>
+      </c>
+      <c r="E42" s="64">
+        <v>0</v>
+      </c>
+      <c r="F42" s="64">
+        <v>0</v>
+      </c>
+      <c r="G42" s="64">
+        <v>0</v>
+      </c>
+      <c r="H42" s="64">
+        <v>0</v>
+      </c>
+      <c r="I42" s="64">
+        <v>0</v>
+      </c>
+      <c r="J42" s="64">
+        <v>0</v>
+      </c>
+      <c r="K42" s="64">
+        <v>1</v>
+      </c>
+      <c r="L42" s="64">
+        <v>0</v>
+      </c>
+      <c r="M42" s="64">
+        <v>-0.25</v>
+      </c>
+      <c r="N42" s="64">
+        <v>-0.25</v>
+      </c>
+      <c r="O42" s="64">
+        <v>-0.25</v>
+      </c>
+      <c r="P42" s="64">
+        <v>-0.25</v>
+      </c>
+      <c r="Q42" s="64">
+        <v>0</v>
+      </c>
+      <c r="R42" s="64">
+        <v>-3</v>
+      </c>
+      <c r="T42" s="67">
+        <f t="shared" si="67"/>
+        <v>-326592</v>
+      </c>
+      <c r="U42" s="67">
+        <f t="shared" si="68"/>
+        <v>326592</v>
+      </c>
+      <c r="V42" s="67">
+        <v>0</v>
+      </c>
+      <c r="W42" s="64">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="X42" s="64">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="Y42" s="64">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="Z42" s="64">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="AA42" s="64">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="AB42" s="64">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="AC42" s="64">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="AD42" s="64">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="AE42" s="64">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AF42" s="64">
+        <f t="shared" si="78"/>
+        <v>326592</v>
+      </c>
+      <c r="AG42" s="64">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AH42" s="64">
+        <f>M42*AH$32*3600*24</f>
+        <v>-81648</v>
+      </c>
+      <c r="AI42" s="64">
+        <f>N42*AI$32*3600*24</f>
+        <v>-54000</v>
+      </c>
+      <c r="AJ42" s="64">
+        <f>O42*AJ$32*3600*24</f>
+        <v>-22464</v>
+      </c>
+      <c r="AK42" s="64">
+        <f>P42*AK$32*3600*24</f>
+        <v>-168480</v>
+      </c>
+      <c r="AL42" s="64">
+        <f>Q42*AL$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AM42" s="64">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AN42" s="64" t="b">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="AO42" s="66">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A43" s="65" t="s">
+        <v>412</v>
+      </c>
+      <c r="B43" s="64">
+        <v>0</v>
+      </c>
+      <c r="C43" s="64">
+        <v>0</v>
+      </c>
+      <c r="D43" s="64">
+        <v>0</v>
+      </c>
+      <c r="E43" s="64">
+        <v>0</v>
+      </c>
+      <c r="F43" s="64">
+        <v>0</v>
+      </c>
+      <c r="G43" s="64">
+        <v>0</v>
+      </c>
+      <c r="H43" s="64">
+        <v>0</v>
+      </c>
+      <c r="I43" s="64">
+        <v>0</v>
+      </c>
+      <c r="J43" s="64">
+        <v>0</v>
+      </c>
+      <c r="K43" s="64">
+        <v>0</v>
+      </c>
+      <c r="L43" s="64">
+        <v>0</v>
+      </c>
+      <c r="M43" s="64">
+        <v>0</v>
+      </c>
+      <c r="N43" s="64">
+        <v>0</v>
+      </c>
+      <c r="O43" s="64">
+        <v>0</v>
+      </c>
+      <c r="P43" s="64">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="64">
+        <v>0</v>
+      </c>
+      <c r="R43" s="64">
+        <v>50</v>
+      </c>
+      <c r="T43" s="67">
+        <f t="shared" ref="T43" si="83">SUMIF(V43:AM43,"&lt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="U43" s="67">
+        <f t="shared" ref="U43" si="84">SUMIF(V43:AM43,"&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="V43" s="67">
+        <v>0</v>
+      </c>
+      <c r="W43" s="64">
+        <f t="shared" ref="W43" si="85">B43*W$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="X43" s="64">
+        <f t="shared" ref="X43" si="86">C43*X$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="Y43" s="64">
+        <f t="shared" ref="Y43" si="87">D43*Y$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="Z43" s="64">
+        <f t="shared" ref="Z43" si="88">E43*Z$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AA43" s="64">
+        <f t="shared" ref="AA43" si="89">F43*AA$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AB43" s="64">
+        <f t="shared" ref="AB43" si="90">G43*AB$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AC43" s="64">
+        <f t="shared" ref="AC43" si="91">H43*AC$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AD43" s="64">
+        <f t="shared" ref="AD43" si="92">I43*AD$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AE43" s="64">
+        <f t="shared" ref="AE43" si="93">J43*AE$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AF43" s="64">
+        <f t="shared" ref="AF43" si="94">K43*AF$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AG43" s="64">
+        <f t="shared" ref="AG43" si="95">L43*AG$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AH43" s="64">
+        <f>M43*AH$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AI43" s="64">
+        <f>N43*AI$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AJ43" s="64">
+        <f>O43*AJ$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AK43" s="64">
+        <f>P43*AK$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AL43" s="64">
+        <f>Q43*AL$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AM43" s="64">
+        <f t="shared" ref="AM43" si="96">R43*AM$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AN43" s="64" t="b">
+        <f t="shared" ref="AN43" si="97">T43=U43</f>
+        <v>1</v>
+      </c>
+      <c r="AO43" s="66">
+        <f t="shared" ref="AO43" si="98">U43+T43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A44" s="65" t="s">
+        <v>413</v>
+      </c>
+      <c r="B44" s="64">
+        <v>0</v>
+      </c>
+      <c r="C44" s="64">
+        <v>0</v>
+      </c>
+      <c r="D44" s="64">
+        <v>-5.0000000000000002E-5</v>
+      </c>
+      <c r="E44" s="64">
+        <v>0</v>
+      </c>
+      <c r="F44" s="64">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="G44" s="64">
+        <v>0</v>
+      </c>
+      <c r="H44" s="64">
+        <v>0</v>
+      </c>
+      <c r="I44" s="64">
+        <v>0</v>
+      </c>
+      <c r="J44" s="64">
+        <v>0</v>
+      </c>
+      <c r="K44" s="64">
+        <v>0</v>
+      </c>
+      <c r="L44" s="64">
+        <v>0</v>
+      </c>
+      <c r="M44" s="64">
+        <v>0</v>
+      </c>
+      <c r="N44" s="64">
+        <v>0</v>
+      </c>
+      <c r="O44" s="64">
+        <v>0</v>
+      </c>
+      <c r="P44" s="64">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="64">
+        <v>0</v>
+      </c>
+      <c r="R44" s="64">
+        <v>-3</v>
+      </c>
+      <c r="T44" s="67">
+        <f t="shared" ref="T44" si="99">SUMIF(V44:AM44,"&lt;0")</f>
+        <v>-4.32</v>
+      </c>
+      <c r="U44" s="67">
+        <f t="shared" ref="U44" si="100">SUMIF(V44:AM44,"&gt;0")</f>
+        <v>4.32</v>
+      </c>
+      <c r="V44" s="66">
+        <v>2.16</v>
+      </c>
+      <c r="W44" s="64">
+        <f t="shared" ref="W44" si="101">B44*W$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="X44" s="64">
+        <f t="shared" ref="X44" si="102">C44*X$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="Y44" s="64">
+        <f t="shared" ref="Y44" si="103">D44*Y$32*3600*24</f>
+        <v>-4.32</v>
+      </c>
+      <c r="Z44" s="64">
+        <f t="shared" ref="Z44" si="104">E44*Z$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AA44" s="64">
+        <f t="shared" ref="AA44" si="105">F44*AA$32*3600*24</f>
+        <v>2.16</v>
+      </c>
+      <c r="AB44" s="64">
+        <f t="shared" ref="AB44" si="106">G44*AB$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AC44" s="64">
+        <f t="shared" ref="AC44" si="107">H44*AC$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AD44" s="64">
+        <f t="shared" ref="AD44" si="108">I44*AD$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AE44" s="64">
+        <f t="shared" ref="AE44" si="109">J44*AE$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AF44" s="64">
+        <f t="shared" ref="AF44" si="110">K44*AF$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AG44" s="64">
+        <f t="shared" ref="AG44" si="111">L44*AG$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AH44" s="64">
+        <f>M44*AH$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AI44" s="64">
+        <f>N44*AI$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AJ44" s="64">
+        <f>O44*AJ$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AK44" s="64">
+        <f>P44*AK$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AL44" s="64">
+        <f>Q44*AL$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AM44" s="64">
+        <f t="shared" ref="AM44" si="112">R44*AM$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AN44" s="64" t="b">
+        <f t="shared" ref="AN44" si="113">T44=U44</f>
+        <v>0</v>
+      </c>
+      <c r="AO44" s="66">
+        <f t="shared" ref="AO44" si="114">U44+T44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A46" s="65" t="s">
+        <v>382</v>
+      </c>
+      <c r="B46" s="64" t="s">
+        <v>383</v>
+      </c>
+      <c r="C46" s="64" t="s">
+        <v>384</v>
+      </c>
+      <c r="D46" s="64" t="s">
+        <v>385</v>
+      </c>
+      <c r="E46" s="64" t="s">
+        <v>386</v>
+      </c>
+      <c r="F46" s="64" t="s">
+        <v>388</v>
+      </c>
+      <c r="G46" s="64" t="s">
+        <v>389</v>
+      </c>
+      <c r="H46" s="64" t="s">
+        <v>391</v>
+      </c>
+      <c r="I46" s="64" t="s">
+        <v>392</v>
+      </c>
+      <c r="J46" s="64" t="s">
+        <v>394</v>
+      </c>
+      <c r="K46" s="64" t="s">
+        <v>397</v>
+      </c>
+      <c r="L46" s="64" t="s">
+        <v>398</v>
+      </c>
+      <c r="M46" s="64" t="s">
+        <v>399</v>
+      </c>
+      <c r="N46" s="64" t="s">
+        <v>407</v>
+      </c>
+      <c r="O46" s="64" t="s">
+        <v>408</v>
+      </c>
+      <c r="P46" s="64" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q46" s="64" t="s">
+        <v>411</v>
+      </c>
+      <c r="R46" s="64" t="s">
+        <v>387</v>
+      </c>
+      <c r="T46" s="64" t="s">
+        <v>400</v>
+      </c>
+      <c r="U46" s="64" t="s">
+        <v>401</v>
+      </c>
+      <c r="V46" s="64" t="s">
+        <v>404</v>
+      </c>
+      <c r="W46" s="64" t="s">
+        <v>383</v>
+      </c>
+      <c r="X46" s="64" t="s">
+        <v>384</v>
+      </c>
+      <c r="Y46" s="64" t="s">
+        <v>385</v>
+      </c>
+      <c r="Z46" s="64" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA46" s="64" t="s">
+        <v>388</v>
+      </c>
+      <c r="AB46" s="64" t="s">
+        <v>389</v>
+      </c>
+      <c r="AC46" s="64" t="s">
+        <v>391</v>
+      </c>
+      <c r="AD46" s="64" t="s">
+        <v>392</v>
+      </c>
+      <c r="AE46" s="64" t="s">
+        <v>394</v>
+      </c>
+      <c r="AF46" s="64" t="s">
+        <v>397</v>
+      </c>
+      <c r="AG46" s="64" t="s">
+        <v>398</v>
+      </c>
+      <c r="AH46" s="64" t="s">
+        <v>399</v>
+      </c>
+      <c r="AI46" s="64" t="s">
+        <v>407</v>
+      </c>
+      <c r="AJ46" s="64" t="s">
+        <v>408</v>
+      </c>
+      <c r="AK46" s="64" t="s">
+        <v>406</v>
+      </c>
+      <c r="AL46" s="64" t="s">
+        <v>411</v>
+      </c>
+      <c r="AM46" s="64" t="s">
+        <v>387</v>
+      </c>
+      <c r="AN46" s="64" t="s">
+        <v>403</v>
+      </c>
+      <c r="AO46" s="64" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="47" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A47" s="65" t="s">
+        <v>390</v>
+      </c>
+      <c r="B47" s="64">
+        <v>0</v>
+      </c>
+      <c r="C47" s="64">
+        <v>1E-3</v>
+      </c>
+      <c r="D47" s="64">
+        <v>0</v>
+      </c>
+      <c r="E47" s="64">
+        <v>0</v>
+      </c>
+      <c r="F47" s="64">
+        <v>0</v>
+      </c>
+      <c r="G47" s="64">
+        <v>0</v>
+      </c>
+      <c r="H47" s="64">
+        <v>1E-3</v>
+      </c>
+      <c r="I47" s="64">
+        <v>1E-3</v>
+      </c>
+      <c r="J47" s="64">
+        <v>0</v>
+      </c>
+      <c r="K47" s="64">
+        <v>0</v>
+      </c>
+      <c r="L47" s="64">
+        <v>0</v>
+      </c>
+      <c r="M47" s="64">
+        <v>0</v>
+      </c>
+      <c r="N47" s="64">
+        <v>0</v>
+      </c>
+      <c r="O47" s="64">
+        <v>0</v>
+      </c>
+      <c r="P47" s="64">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="64">
+        <v>0</v>
+      </c>
+      <c r="R47" s="64">
+        <v>-6</v>
+      </c>
+      <c r="T47" s="66">
+        <f>SUMIF(V47:AM47,"&lt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="U47" s="67">
+        <f>SUMIF(V47:AM47,"&gt;0")</f>
+        <v>1261.44</v>
+      </c>
+      <c r="V47" s="67">
+        <v>0</v>
+      </c>
+      <c r="W47" s="64">
+        <f>B47*W$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="X47" s="64">
+        <f>C47*X$32*3600*24</f>
+        <v>138.24</v>
+      </c>
+      <c r="Y47" s="64">
+        <f>D47*Y$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="Z47" s="64">
+        <f>E47*Z$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AA47" s="64">
+        <f>F47*AA$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AB47" s="64">
+        <f>G47*AB$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AC47" s="64">
+        <f>H47*AC$32*3600*24</f>
+        <v>475.19999999999993</v>
+      </c>
+      <c r="AD47" s="64">
+        <f>I47*AD$32*3600*24</f>
+        <v>648</v>
+      </c>
+      <c r="AE47" s="64">
+        <f>J47*AE$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AF47" s="64">
+        <f>K47*AF$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AG47" s="64">
+        <f>L47*AG$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AH47" s="64">
+        <f>M47*AH$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AI47" s="64">
+        <f>N47*AI$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AJ47" s="64">
+        <f>O47*AJ$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AK47" s="64">
+        <f>P47*AK$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AL47" s="64">
+        <f>Q47*AL$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AM47" s="64">
+        <f>R47*AM$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AN47" s="64" t="b">
+        <f>T47=U47</f>
+        <v>0</v>
+      </c>
+      <c r="AO47" s="66">
+        <f>U47+T47</f>
+        <v>1261.44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A48" s="65" t="s">
+        <v>393</v>
+      </c>
+      <c r="B48" s="64">
+        <v>1E-3</v>
+      </c>
+      <c r="C48" s="64">
+        <v>0</v>
+      </c>
+      <c r="D48" s="64">
+        <v>0</v>
+      </c>
+      <c r="E48" s="64">
+        <v>0</v>
+      </c>
+      <c r="F48" s="64">
+        <v>0</v>
+      </c>
+      <c r="G48" s="64">
+        <v>0</v>
+      </c>
+      <c r="H48" s="64">
+        <v>0</v>
+      </c>
+      <c r="I48" s="64">
+        <v>0</v>
+      </c>
+      <c r="J48" s="64">
+        <v>1E-3</v>
+      </c>
+      <c r="K48" s="64">
+        <v>0</v>
+      </c>
+      <c r="L48" s="64">
+        <v>0</v>
+      </c>
+      <c r="M48" s="64">
+        <v>0</v>
+      </c>
+      <c r="N48" s="64">
+        <v>0</v>
+      </c>
+      <c r="O48" s="64">
+        <v>0</v>
+      </c>
+      <c r="P48" s="64">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="64">
+        <v>0</v>
+      </c>
+      <c r="R48" s="64">
+        <v>0</v>
+      </c>
+      <c r="T48" s="66">
+        <f>SUMIF(V48:AM48,"&lt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="U48" s="67">
+        <f>SUMIF(V48:AM48,"&gt;0")</f>
+        <v>319.68000000000006</v>
+      </c>
+      <c r="V48" s="67">
+        <v>0</v>
+      </c>
+      <c r="W48" s="64">
+        <f>B48*W$32*3600*24</f>
+        <v>86.4</v>
+      </c>
+      <c r="X48" s="64">
+        <f>C48*X$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="Y48" s="64">
+        <f>D48*Y$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="Z48" s="64">
+        <f>E48*Z$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AA48" s="64">
+        <f>F48*AA$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AB48" s="64">
+        <f>G48*AB$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AC48" s="64">
+        <f>H48*AC$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AD48" s="64">
+        <f>I48*AD$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AE48" s="64">
+        <f>J48*AE$32*3600*24</f>
+        <v>233.28000000000003</v>
+      </c>
+      <c r="AF48" s="64">
+        <f>K48*AF$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AG48" s="64">
+        <f>L48*AG$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AH48" s="64">
+        <f>M48*AH$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AI48" s="64">
+        <f>N48*AI$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AJ48" s="64">
+        <f>O48*AJ$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AK48" s="64">
+        <f>P48*AK$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AL48" s="64">
+        <f>Q48*AL$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AM48" s="64">
+        <f>R48*AM$32*3600*24</f>
+        <v>0</v>
+      </c>
+      <c r="AN48" s="64" t="b">
+        <f>T48=U48</f>
+        <v>0</v>
+      </c>
+      <c r="AO48" s="66">
+        <f>U48+T48</f>
+        <v>319.68000000000006</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B34:R39 B47:R48">
+    <cfRule type="expression" dxfId="27" priority="25">
+      <formula>B34&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="26">
+      <formula>B34&lt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40:J40 M40:R40">
+    <cfRule type="expression" dxfId="23" priority="21">
+      <formula>B40&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="22">
+      <formula>B40&lt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K40:L40">
+    <cfRule type="expression" dxfId="21" priority="19">
+      <formula>K40&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="20">
+      <formula>K40&lt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B41:J41 M41:R41">
+    <cfRule type="expression" dxfId="19" priority="17">
+      <formula>B41&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="18">
+      <formula>B41&lt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K42:L42">
+    <cfRule type="expression" dxfId="17" priority="9">
+      <formula>K42&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="10">
+      <formula>K42&lt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K41:L41">
+    <cfRule type="expression" dxfId="15" priority="13">
+      <formula>K41&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="14">
+      <formula>K41&lt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B42:J42 M42:R42">
+    <cfRule type="expression" dxfId="13" priority="11">
+      <formula>B42&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="12">
+      <formula>B42&lt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K43:L43">
+    <cfRule type="expression" dxfId="11" priority="5">
+      <formula>K43&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="6">
+      <formula>K43&lt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43:R43">
+    <cfRule type="expression" dxfId="9" priority="7">
+      <formula>B43&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="8">
+      <formula>B43&lt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K44:L44">
+    <cfRule type="expression" dxfId="7" priority="1">
+      <formula>K44&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="2">
+      <formula>K44&lt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44:R44">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>B44&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>B44&lt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/GameData/Felbourn/Documents/balance.xlsx
+++ b/GameData/Felbourn/Documents/balance.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="418">
   <si>
     <t>W/m2</t>
   </si>
@@ -1273,6 +1273,18 @@
   </si>
   <si>
     <t>Nom-O-Matic 5000</t>
+  </si>
+  <si>
+    <t>Phase 1</t>
+  </si>
+  <si>
+    <t>unmanned</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>side</t>
   </si>
 </sst>
 </file>
@@ -1288,7 +1300,7 @@
     <numFmt numFmtId="168" formatCode="0.000000"/>
     <numFmt numFmtId="169" formatCode="_(* #,##0.000000_);_(* \(#,##0.000000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1362,6 +1374,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Narrow"/>
@@ -1490,7 +1510,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1696,387 +1716,16 @@
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="66">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <font>
         <color theme="0"/>
@@ -4147,10 +3796,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A13:AO48"/>
+  <dimension ref="A13:AO51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" topLeftCell="G7" workbookViewId="0">
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4195,14 +3844,60 @@
     <col min="42" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="13" spans="25:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="17:25" x14ac:dyDescent="0.2">
+      <c r="Q13" s="64">
+        <v>2.5</v>
+      </c>
+      <c r="R13" s="64">
+        <f>Q13/2</f>
+        <v>1.25</v>
+      </c>
+      <c r="S13" s="64" t="s">
+        <v>416</v>
+      </c>
+      <c r="T13" s="64">
+        <f>PI()*R13^2</f>
+        <v>4.908738521234052</v>
+      </c>
       <c r="Y13" s="68"/>
     </row>
+    <row r="14" spans="17:25" x14ac:dyDescent="0.2">
+      <c r="S14" s="64" t="s">
+        <v>417</v>
+      </c>
+      <c r="T14" s="64">
+        <f>2*PI()*R13*1</f>
+        <v>7.8539816339744828</v>
+      </c>
+    </row>
+    <row r="15" spans="17:25" x14ac:dyDescent="0.2">
+      <c r="T15" s="64">
+        <f>T13+T14</f>
+        <v>12.762720155208534</v>
+      </c>
+    </row>
+    <row r="16" spans="17:25" x14ac:dyDescent="0.2">
+      <c r="T16" s="64">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="17" spans="20:39" x14ac:dyDescent="0.2">
+      <c r="T17" s="64">
+        <f>T15*T16</f>
+        <v>0.12762720155208535</v>
+      </c>
+    </row>
+    <row r="18" spans="20:39" x14ac:dyDescent="0.2">
+      <c r="T18" s="64">
+        <v>2.7</v>
+      </c>
+    </row>
     <row r="19" spans="20:39" x14ac:dyDescent="0.2">
+      <c r="T19" s="64">
+        <f>T17*T18</f>
+        <v>0.34459344419063048</v>
+      </c>
       <c r="Y19" s="68"/>
-    </row>
-    <row r="25" spans="20:39" x14ac:dyDescent="0.2">
-      <c r="Y25" s="68"/>
     </row>
     <row r="32" spans="20:39" x14ac:dyDescent="0.2">
       <c r="T32" s="64" t="s">
@@ -6363,92 +6058,102 @@
         <v>319.68000000000006</v>
       </c>
     </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="69" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="65" t="s">
+        <v>415</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B34:R39 B47:R48">
-    <cfRule type="expression" dxfId="27" priority="25">
+    <cfRule type="expression" dxfId="21" priority="25">
       <formula>B34&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="26">
+    <cfRule type="expression" dxfId="20" priority="26">
       <formula>B34&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K40:L40">
+    <cfRule type="expression" dxfId="19" priority="19">
+      <formula>K40&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="20">
+      <formula>K40&lt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B40:J40 M40:R40">
-    <cfRule type="expression" dxfId="23" priority="21">
+    <cfRule type="expression" dxfId="17" priority="21">
       <formula>B40&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="22">
+    <cfRule type="expression" dxfId="16" priority="22">
       <formula>B40&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K40:L40">
-    <cfRule type="expression" dxfId="21" priority="19">
-      <formula>K40&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="20">
-      <formula>K40&lt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B41:J41 M41:R41">
-    <cfRule type="expression" dxfId="19" priority="17">
+    <cfRule type="expression" dxfId="15" priority="17">
       <formula>B41&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="18">
+    <cfRule type="expression" dxfId="14" priority="18">
       <formula>B41&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K42:L42">
-    <cfRule type="expression" dxfId="17" priority="9">
+    <cfRule type="expression" dxfId="13" priority="9">
       <formula>K42&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="10">
+    <cfRule type="expression" dxfId="12" priority="10">
       <formula>K42&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K41:L41">
-    <cfRule type="expression" dxfId="15" priority="13">
+    <cfRule type="expression" dxfId="11" priority="13">
       <formula>K41&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="14">
+    <cfRule type="expression" dxfId="10" priority="14">
       <formula>K41&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42:J42 M42:R42">
-    <cfRule type="expression" dxfId="13" priority="11">
+    <cfRule type="expression" dxfId="9" priority="11">
       <formula>B42&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="12">
+    <cfRule type="expression" dxfId="8" priority="12">
       <formula>B42&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K43:L43">
-    <cfRule type="expression" dxfId="11" priority="5">
+    <cfRule type="expression" dxfId="7" priority="5">
       <formula>K43&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="6">
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>K43&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43:R43">
-    <cfRule type="expression" dxfId="9" priority="7">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>B43&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="4" priority="8">
       <formula>B43&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K44:L44">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>K44&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>K44&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:R44">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>B44&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>B44&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
